--- a/src/test/resources/009 Two-teams-two-mh-one-strategic-project.xlsx
+++ b/src/test/resources/009 Two-teams-two-mh-one-strategic-project.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Team1</t>
   </si>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,6 +147,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,10 +850,19 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
         <v>21</v>
       </c>
     </row>
